--- a/outputs-r202/test-o__Coriobacteriales.xlsx
+++ b/outputs-r202/test-o__Coriobacteriales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Row</t>
   </si>
@@ -127,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,14 +137,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,567 +175,567 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99999999951628216</v>
+        <v>0.99999999915367166</v>
       </c>
       <c r="C2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="D2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="E2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="F2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="G2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="H2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="I2">
-        <v>4.8356248370991499e-10</v>
+        <v>8.4617298070583583e-10</v>
       </c>
       <c r="J2">
-        <v>2.2204460491309338e-14</v>
+        <v>2.2204460490414716e-14</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.99977005193019453</v>
+        <v>0.99974590968414845</v>
       </c>
       <c r="C3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="D3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="E3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="F3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="G3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="H3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="I3">
-        <v>0.00022994806964999137</v>
+        <v>0.00025409031569609676</v>
       </c>
       <c r="J3">
-        <v>2.2203893554310166e-14</v>
+        <v>2.220383407567626e-14</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="E4">
-        <v>0.99997934067253402</v>
+        <v>0.99998319733806817</v>
       </c>
       <c r="F4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="I4">
-        <v>2.0659327310602361e-05</v>
+        <v>1.6802661776488287e-05</v>
       </c>
       <c r="J4">
-        <v>2.2204409525664801e-14</v>
+        <v>2.2204419039643456e-14</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.99996740833894704</v>
+        <v>0.99997026955963797</v>
       </c>
       <c r="C5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="D5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="E5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="F5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="G5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="H5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="I5">
-        <v>3.2591660897559661e-05</v>
+        <v>2.9730440206521756e-05</v>
       </c>
       <c r="J5">
-        <v>2.220438009124005e-14</v>
+        <v>2.2204387149050906e-14</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99980993938441398</v>
+        <v>0.99979303057260249</v>
       </c>
       <c r="C6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="D6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="E6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="F6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="G6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="H6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="I6">
-        <v>0.00019006061543065797</v>
+        <v>0.00020696942724200549</v>
       </c>
       <c r="J6">
-        <v>2.220399184241412e-14</v>
+        <v>2.2203950174005826e-14</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="C7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="D7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="E7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="F7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="G7">
-        <v>0.99867363602022308</v>
+        <v>0.99879503531660763</v>
       </c>
       <c r="H7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="I7">
-        <v>0.0013263639796214687</v>
+        <v>0.0012049646832369251</v>
       </c>
       <c r="J7">
-        <v>2.2201200814323159e-14</v>
+        <v>2.2201498111656115e-14</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99990689698661583</v>
+        <v>0.99993876930233949</v>
       </c>
       <c r="C8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="D8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="E8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="F8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="G8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="H8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="I8">
-        <v>9.3103013228777035e-05</v>
+        <v>6.1230697505049996e-05</v>
       </c>
       <c r="J8">
-        <v>2.220423085472049e-14</v>
+        <v>2.2204309453450858e-14</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="C9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="D9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="E9">
-        <v>0.99991867978253046</v>
+        <v>0.99998286574042761</v>
       </c>
       <c r="F9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="G9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="H9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="I9">
-        <v>8.1320217314212822e-05</v>
+        <v>1.7134259417011681e-05</v>
       </c>
       <c r="J9">
-        <v>2.2204259909980977e-14</v>
+        <v>2.2204418221619351e-14</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.99966083306712794</v>
+        <v>0.99973036834935358</v>
       </c>
       <c r="C10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="D10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="E10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="F10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="G10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="H10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="I10">
-        <v>0.00033916693271664877</v>
+        <v>0.00026963165049090403</v>
       </c>
       <c r="J10">
-        <v>2.2203624541548162e-14</v>
+        <v>2.2203795791331451e-14</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.99999897871891086</v>
+        <v>0.99999645393550751</v>
       </c>
       <c r="C11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="D11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="E11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="F11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="G11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="H11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="I11">
-        <v>1.0212809336362344e-06</v>
+        <v>3.5460643372193281e-06</v>
       </c>
       <c r="J11">
-        <v>2.220445797284408e-14</v>
+        <v>2.2204451743876812e-14</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99999997931583284</v>
+        <v>0.99999994063912412</v>
       </c>
       <c r="C12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="D12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="E12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="F12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="G12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="H12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="I12">
-        <v>2.0684011733371831e-08</v>
+        <v>5.9360720402919592e-08</v>
       </c>
       <c r="J12">
-        <v>2.2204460441471552e-14</v>
+        <v>2.2204460346049857e-14</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.9999989946436082</v>
+        <v>0.99999526429810792</v>
       </c>
       <c r="C13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="D13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="E13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="F13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="G13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="H13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="I13">
-        <v>1.005356236469483e-06</v>
+        <v>4.7357017366699622e-06</v>
       </c>
       <c r="J13">
-        <v>2.220445801213267e-14</v>
+        <v>2.2204448808919281e-14</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.99999698594630659</v>
+        <v>0.99999791039507446</v>
       </c>
       <c r="C14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="D14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="E14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="F14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="G14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="H14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="I14">
-        <v>3.0140535379674518e-06</v>
+        <v>2.089604770026109e-06</v>
       </c>
       <c r="J14">
-        <v>2.2204453056408631e-14</v>
+        <v>2.2204455337139766e-14</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99999999998155686</v>
+        <v>0.99999999998757161</v>
       </c>
       <c r="C15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="D15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="E15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="F15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="G15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="H15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="I15">
-        <v>1.8287747795192886e-11</v>
+        <v>1.2272919772245622e-11</v>
       </c>
       <c r="J15">
-        <v>2.2204460492457248e-14</v>
+        <v>2.2204460492472078e-14</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99998220290004691</v>
+        <v>0.99999430730031647</v>
       </c>
       <c r="C16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="D16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="E16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="F16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="G16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="H16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="I16">
-        <v>1.7797099797662717e-05</v>
+        <v>5.6926995280506616e-06</v>
       </c>
       <c r="J16">
-        <v>2.2204416586451408e-14</v>
+        <v>2.2204446447922351e-14</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -766,140 +770,140 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.99999823887100781</v>
+        <v>0.99999686183500891</v>
       </c>
       <c r="C18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="D18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="E18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="F18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="G18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="H18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="I18">
-        <v>1.7611288367933098e-06</v>
+        <v>3.1381648357441509e-06</v>
       </c>
       <c r="J18">
-        <v>2.2204456147534081e-14</v>
+        <v>2.2204452750211431e-14</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99999186546119179</v>
+        <v>0.99999547027399738</v>
       </c>
       <c r="C19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="D19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="E19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="F19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="G19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="H19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="I19">
-        <v>8.1345386528108662e-06</v>
+        <v>4.5297258471535835e-06</v>
       </c>
       <c r="J19">
-        <v>2.2204440423752266e-14</v>
+        <v>2.2204449317081473e-14</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.48089340751893572</v>
+        <v>0.5146196951156955</v>
       </c>
       <c r="C20">
-        <v>4.950432249481005e-13</v>
+        <v>7.3483635587700318e-13</v>
       </c>
       <c r="D20">
-        <v>4.950432249481005e-13</v>
+        <v>7.3483635587700308e-13</v>
       </c>
       <c r="E20">
-        <v>4.950432249481005e-13</v>
+        <v>7.3483635587700338e-13</v>
       </c>
       <c r="F20">
-        <v>4.950432249481005e-13</v>
+        <v>7.3483635587700338e-13</v>
       </c>
       <c r="G20">
-        <v>4.950432249481007e-13</v>
+        <v>7.3483635587700379e-13</v>
       </c>
       <c r="H20">
-        <v>4.950432249481007e-13</v>
+        <v>7.3483635587700379e-13</v>
       </c>
       <c r="I20">
-        <v>0.51910659247759894</v>
+        <v>0.48538030487916045</v>
       </c>
       <c r="J20">
-        <v>4.950432249481005e-13</v>
+        <v>7.3483635587700369e-13</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.99982134591526062</v>
+        <v>0.99984540637108577</v>
       </c>
       <c r="C21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="D21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="E21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="F21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="G21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="H21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="I21">
-        <v>0.00017865408458396119</v>
+        <v>0.0001545936287587751</v>
       </c>
       <c r="J21">
-        <v>2.2204019953871171e-14</v>
+        <v>2.220407925714392e-14</v>
       </c>
       <c r="K21">
         <v>1</v>
